--- a/posesiones/1381256.xlsx
+++ b/posesiones/1381256.xlsx
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>9</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>13</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>13</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>11</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>21</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>25</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>15</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>12</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>30</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>9</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>29</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>25</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>14</v>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>8</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>21</v>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>8</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>14</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>14</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>16</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>21</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>13</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R68">
         <v>25</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>16</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>23</v>
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>11</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>25</v>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>7</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>30</v>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R98">
         <v>18</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R105">
         <v>5</v>
@@ -7000,10 +7000,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7138,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>23</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>34</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R121">
         <v>19</v>
@@ -7788,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R122">
         <v>22</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R126">
         <v>16</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>29</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R138">
         <v>13</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R140">
         <v>13</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R143">
         <v>31</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R145">
         <v>6</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R147">
         <v>9</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R155">
         <v>26</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R164">
         <v>5</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R166">
         <v>17</v>
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R167">
         <v>22</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R169">
         <v>7</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R172">
         <v>16</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10340,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R177">
         <v>27</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10584,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R179">
         <v>9</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R181">
         <v>6</v>
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R183">
         <v>4</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>22</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R188">
         <v>33</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R194">
         <v>29</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R200">
         <v>4</v>
@@ -11672,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R201">
         <v>15</v>
@@ -11722,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R206">
         <v>22</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12295,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R214">
         <v>18</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12442,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R217">
         <v>20</v>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R218">
         <v>19</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R220">
         <v>24</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R222">
         <v>4</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:17">
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:17">
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:17">
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:17">
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:17">
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:17">
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:17">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:17">
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:17">
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:17">
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:17">
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13594,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13644,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R242">
         <v>12</v>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R247">
         <v>5</v>
@@ -13938,10 +13938,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14082,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14358,10 +14358,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R258">
         <v>12</v>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R264">
         <v>6</v>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R265">
         <v>21</v>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14852,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14899,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14949,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R269">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R270">
         <v>25</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15102,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R273">
         <v>28</v>
@@ -15202,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R275">
         <v>16</v>
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15352,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>7</v>
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15452,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15549,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15602,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15652,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R283">
         <v>11</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R290">
         <v>20</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16378,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R298">
         <v>13</v>
@@ -16431,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R299">
         <v>18</v>
@@ -16484,7 +16484,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R300">
         <v>10</v>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16628,7 +16628,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R303">
         <v>26</v>
@@ -16681,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R304">
         <v>22</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17022,7 +17022,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R311">
         <v>27</v>
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R312">
         <v>11</v>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17175,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R314">
         <v>3</v>
@@ -17228,7 +17228,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R315">
         <v>7</v>
@@ -17278,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17519,7 +17519,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R321">
         <v>21</v>
@@ -17569,7 +17569,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17619,7 +17619,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R323">
         <v>13</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17860,7 +17860,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R328">
         <v>0</v>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17960,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R335">
         <v>20</v>
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18392,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R339">
         <v>18</v>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18633,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18774,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18821,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R350">
         <v>13</v>
@@ -18971,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R352">
         <v>13</v>
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19174,7 +19174,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R355">
         <v>7</v>
@@ -19224,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19324,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R358">
         <v>11</v>
@@ -19374,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19421,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R362">
         <v>19</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19715,7 +19715,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R366">
         <v>7</v>
@@ -19765,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19812,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19862,7 +19862,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R369">
         <v>17</v>
@@ -19912,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20006,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20056,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R373">
         <v>14</v>
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R374">
         <v>12</v>
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20206,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R376">
         <v>26</v>
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R379">
         <v>19</v>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20688,7 +20688,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R386">
         <v>22</v>
@@ -20741,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R387">
         <v>14</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20844,7 +20844,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R389">
         <v>17</v>
@@ -20900,7 +20900,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R390">
         <v>0</v>
@@ -20944,10 +20944,10 @@
         <v>1</v>
       </c>
       <c r="P391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21041,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21135,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21176,10 +21176,10 @@
         <v>1</v>
       </c>
       <c r="P396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q396">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21276,7 +21276,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21326,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R399">
         <v>17</v>
@@ -21376,7 +21376,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21473,7 +21473,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R402">
         <v>27</v>
@@ -21526,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R406">
         <v>15</v>
@@ -21726,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21776,7 +21776,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R408">
         <v>6</v>
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21970,7 +21970,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R412">
         <v>0</v>
@@ -22020,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22117,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R419">
         <v>25</v>
@@ -22355,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22455,7 +22455,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R422">
         <v>0</v>
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22602,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R425">
         <v>17</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22793,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R429">
         <v>18</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22940,7 +22940,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R432">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R433">
         <v>16</v>
@@ -23043,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R435">
         <v>12</v>
@@ -23143,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23237,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23575,7 +23575,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R445">
         <v>33</v>
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23675,7 +23675,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23722,7 +23722,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23866,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R451">
         <v>6</v>
@@ -23916,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24016,7 +24016,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R454">
         <v>16</v>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24160,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24301,7 +24301,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24351,7 +24351,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R461">
         <v>2</v>
@@ -24404,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24498,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24689,7 +24689,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R468">
         <v>16</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24789,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24839,7 +24839,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R471">
         <v>33</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24939,7 +24939,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R473">
         <v>25</v>
@@ -24989,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25039,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R475">
         <v>15</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R477">
         <v>19</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25286,7 +25286,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R480">
         <v>0</v>
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25430,7 +25430,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25574,7 +25574,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R486">
         <v>23</v>
@@ -25627,7 +25627,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25677,7 +25677,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R488">
         <v>15</v>
@@ -25730,7 +25730,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25780,7 +25780,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R490">
         <v>12</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25883,7 +25883,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R492">
         <v>4</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25983,7 +25983,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R494">
         <v>12</v>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R496">
         <v>8</v>
@@ -26136,7 +26136,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26183,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26233,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26283,7 +26283,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R500">
         <v>22</v>
@@ -26336,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26386,7 +26386,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R502">
         <v>13</v>
@@ -26436,7 +26436,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26530,7 +26530,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R505">
         <v>15</v>
@@ -26583,7 +26583,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R506">
         <v>30</v>
@@ -26636,7 +26636,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26686,7 +26686,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R508">
         <v>8</v>
@@ -26739,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26786,7 +26786,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26833,7 +26833,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26880,7 +26880,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26927,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27024,7 +27024,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R515">
         <v>21</v>
@@ -27077,7 +27077,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R516">
         <v>15</v>
@@ -27127,7 +27127,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R519">
         <v>28</v>
@@ -27274,7 +27274,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R520">
         <v>10</v>
@@ -27321,7 +27321,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27368,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27415,7 +27415,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27462,7 +27462,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27556,7 +27556,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27606,7 +27606,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R527">
         <v>6</v>
@@ -27653,7 +27653,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27747,7 +27747,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27841,7 +27841,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27888,7 +27888,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27938,7 +27938,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R534">
         <v>3</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28038,7 +28038,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28085,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28132,7 +28132,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28182,7 +28182,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R539">
         <v>4</v>
@@ -28235,7 +28235,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R540">
         <v>6</v>
@@ -28288,7 +28288,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28338,7 +28338,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R542">
         <v>7</v>
@@ -28388,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28429,10 +28429,10 @@
         <v>1</v>
       </c>
       <c r="P544" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q544">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="545" spans="1:17">
@@ -28473,7 +28473,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
